--- a/MethodDemos/output/statistics/pdfx-EMAILS.xlsx
+++ b/MethodDemos/output/statistics/pdfx-EMAILS.xlsx
@@ -193,7 +193,9 @@
     <t>TUW-180162</t>
   </si>
   <si>
-    <t>kirda@eurecom.fr</t>
+    <t>pizzaman@iseclab.org
+chris@cs.ucsb.edu
+kirda@eurecom.fr</t>
   </si>
   <si>
     <t>TUW-181199</t>
